--- a/client/public/1.4.1.xlsx
+++ b/client/public/1.4.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
@@ -44,8 +44,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,16 +82,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -170,6 +179,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -204,6 +214,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,54 +390,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection password="CC8C" sheet="1" objects="1" scenarios="1" insertRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
